--- a/Template/Шаблон_для_загрузки_работников_в_DirectumRX.xlsx
+++ b/Template/Шаблон_для_загрузки_работников_в_DirectumRX.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aitov_NS\Desktop\Шаблоны оргструктуры\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kondrateva_SS\Desktop\тестирование\Загрузка данных\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11475" windowHeight="8820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="6150"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -265,7 +265,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -279,9 +279,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -663,7 +660,7 @@
   <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -675,7 +672,7 @@
     <col min="5" max="5" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.5703125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
     <col min="11" max="11" width="38.28515625" customWidth="1"/>
@@ -685,13 +682,13 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -703,7 +700,7 @@
       <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="21" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -716,404 +713,404 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-    </row>
-    <row r="3" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="33"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="33"/>
-      <c r="K4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="27"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="14"/>
-      <c r="H6" s="9"/>
-      <c r="K6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="14"/>
-      <c r="H7" s="9"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="14"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="16"/>
-      <c r="H9" s="9"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="15"/>
-      <c r="H10" s="10"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="14"/>
-      <c r="H11" s="9"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="14"/>
-      <c r="H12" s="9"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="15"/>
-      <c r="H13" s="9"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="14"/>
-      <c r="H14" s="9"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="14"/>
-      <c r="H15" s="9"/>
-      <c r="K15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="14"/>
-      <c r="H16" s="9"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="14"/>
-      <c r="H17" s="9"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="14"/>
-      <c r="H18" s="9"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="14"/>
-      <c r="H19" s="9"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="15"/>
-      <c r="H20" s="9"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="14"/>
-      <c r="H21" s="10"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="14"/>
-      <c r="H22" s="9"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="14"/>
-      <c r="K23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="14"/>
-      <c r="H24" s="9"/>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="14"/>
-      <c r="H25" s="9"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="15"/>
-      <c r="H26" s="9"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="14"/>
-      <c r="H27" s="9"/>
-      <c r="K27" s="13"/>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="15"/>
-      <c r="H28" s="9"/>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="17"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="15"/>
-      <c r="H29" s="9"/>
-      <c r="K29" s="13"/>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="17"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="15"/>
-      <c r="H30" s="9"/>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="15"/>
-      <c r="H31" s="9"/>
-      <c r="K31" s="13"/>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="17"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="14"/>
-      <c r="H32" s="9"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="17"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="14"/>
-      <c r="H33" s="9"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="17"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="14"/>
-      <c r="K34" s="13"/>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="17"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="14"/>
-      <c r="H35" s="9"/>
-      <c r="K35" s="13"/>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="17"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="14"/>
-      <c r="H36" s="9"/>
-      <c r="K36" s="13"/>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="17"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="14"/>
-      <c r="H37" s="9"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="17"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="14"/>
-      <c r="H38" s="9"/>
-      <c r="K38" s="13"/>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="17"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="15"/>
-      <c r="H39" s="9"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="17"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="14"/>
-      <c r="H40" s="9"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="15"/>
-      <c r="K41" s="13"/>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="14"/>
-      <c r="H42" s="10"/>
-      <c r="K42" s="13"/>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="14"/>
-      <c r="H43" s="9"/>
-      <c r="K43" s="13"/>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="14"/>
-      <c r="H44" s="9"/>
-      <c r="K44" s="13"/>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="14"/>
-      <c r="H45" s="8"/>
-      <c r="K45" s="13"/>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="32"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="32"/>
+      <c r="K4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="16"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="13"/>
+      <c r="H6" s="8"/>
+      <c r="K6" s="12"/>
+    </row>
+    <row r="7" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="13"/>
+      <c r="H7" s="8"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="K8" s="12"/>
+    </row>
+    <row r="9" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="15"/>
+      <c r="H9" s="8"/>
+      <c r="K9" s="12"/>
+    </row>
+    <row r="10" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="14"/>
+      <c r="H10" s="9"/>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="13"/>
+      <c r="H11" s="8"/>
+      <c r="K11" s="12"/>
+    </row>
+    <row r="12" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="13"/>
+      <c r="H12" s="8"/>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="14"/>
+      <c r="H13" s="8"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="13"/>
+      <c r="H14" s="8"/>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="13"/>
+      <c r="H15" s="8"/>
+      <c r="K15" s="12"/>
+    </row>
+    <row r="16" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="13"/>
+      <c r="H16" s="8"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="13"/>
+      <c r="H17" s="8"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="13"/>
+      <c r="H18" s="8"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="16"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="13"/>
+      <c r="H19" s="8"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="14"/>
+      <c r="H20" s="8"/>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="K21" s="12"/>
+    </row>
+    <row r="22" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="16"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="13"/>
+      <c r="H22" s="8"/>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="16"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="13"/>
+      <c r="K23" s="12"/>
+    </row>
+    <row r="24" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="16"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="13"/>
+      <c r="H24" s="8"/>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="16"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="13"/>
+      <c r="H25" s="8"/>
+      <c r="K25" s="12"/>
+    </row>
+    <row r="26" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="16"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="14"/>
+      <c r="H26" s="8"/>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="13"/>
+      <c r="H27" s="8"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="14"/>
+      <c r="H28" s="8"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="16"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="14"/>
+      <c r="H29" s="8"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="16"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="14"/>
+      <c r="H30" s="8"/>
+      <c r="K30" s="12"/>
+    </row>
+    <row r="31" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="16"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="14"/>
+      <c r="H31" s="8"/>
+      <c r="K31" s="12"/>
+    </row>
+    <row r="32" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="16"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="13"/>
+      <c r="H32" s="8"/>
+      <c r="K32" s="12"/>
+    </row>
+    <row r="33" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="16"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="13"/>
+      <c r="H33" s="8"/>
+      <c r="K33" s="12"/>
+    </row>
+    <row r="34" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="16"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="13"/>
+      <c r="K34" s="12"/>
+    </row>
+    <row r="35" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="16"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="13"/>
+      <c r="H35" s="8"/>
+      <c r="K35" s="12"/>
+    </row>
+    <row r="36" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="16"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="13"/>
+      <c r="H36" s="8"/>
+      <c r="K36" s="12"/>
+    </row>
+    <row r="37" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="16"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="13"/>
+      <c r="H37" s="8"/>
+      <c r="K37" s="12"/>
+    </row>
+    <row r="38" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="16"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="13"/>
+      <c r="H38" s="8"/>
+      <c r="K38" s="12"/>
+    </row>
+    <row r="39" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="16"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="14"/>
+      <c r="H39" s="8"/>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="16"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="13"/>
+      <c r="H40" s="8"/>
+      <c r="K40" s="12"/>
+    </row>
+    <row r="41" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="16"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="14"/>
+      <c r="K41" s="12"/>
+    </row>
+    <row r="42" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="16"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="13"/>
+      <c r="H42" s="9"/>
+      <c r="K42" s="12"/>
+    </row>
+    <row r="43" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="16"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="13"/>
+      <c r="H43" s="8"/>
+      <c r="K43" s="12"/>
+    </row>
+    <row r="44" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="16"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="13"/>
+      <c r="H44" s="8"/>
+      <c r="K44" s="12"/>
+    </row>
+    <row r="45" spans="1:11" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="16"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="13"/>
+      <c r="H45" s="7"/>
+      <c r="K45" s="12"/>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" t="str">
